--- a/data/trans_bre/P31_2_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P31_2_R-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,8 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +541,15 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +571,27 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -590,6 +604,8 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -604,32 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-2,22</t>
+          <t>-8,19</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-4,07</t>
+          <t>-12,11</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-0,12</t>
+          <t>3,8</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-2,52%</t>
+          <t>-2,52</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-4,22%</t>
+          <t>-9,08%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-0,13%</t>
+          <t>-12,61%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>4,26%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>-2,73%</t>
         </is>
       </c>
     </row>
@@ -642,32 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-11,36; 7,42</t>
+          <t>-22,79; 5,01</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-12,07; 1,76</t>
+          <t>-30,35; -1,52</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-7,06; 7,11</t>
+          <t>-9,01; 17,92</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-12,73; 9,2</t>
+          <t>-17,59; 8,83</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-12,45; 1,9</t>
+          <t>-23,88; 5,89</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-7,36; 8,09</t>
+          <t>-31,05; -1,62</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-9,28; 22,82</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-18,42; 10,14</t>
         </is>
       </c>
     </row>
@@ -684,32 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-3,8</t>
+          <t>-1,05</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>1,11</t>
+          <t>0,57</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>1,09</t>
+          <t>-1,74</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-4,29%</t>
+          <t>2,16</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>1,26%</t>
+          <t>-1,2%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>1,22%</t>
+          <t>0,64%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-1,93%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>2,52%</t>
         </is>
       </c>
     </row>
@@ -722,32 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-9,94; 1,84</t>
+          <t>-8,1; 6,45</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-4,33; 6,85</t>
+          <t>-6,76; 7,26</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-3,88; 7,99</t>
+          <t>-8,45; 6,03</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-11,04; 2,08</t>
+          <t>-6,54; 10,15</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-4,79; 7,98</t>
+          <t>-8,97; 7,75</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-4,2; 9,55</t>
+          <t>-7,2; 8,63</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-9,17; 7,03</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-7,26; 12,73</t>
         </is>
       </c>
     </row>
@@ -764,32 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,17</t>
+          <t>-0,28</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,79</t>
+          <t>-0,92</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,64</t>
+          <t>3,44</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,21%</t>
+          <t>2,2</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-0,96%</t>
+          <t>-0,35%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>1,88%</t>
+          <t>-1,12%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>3,96%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>2,73%</t>
         </is>
       </c>
     </row>
@@ -802,39 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-6,65; 7,56</t>
+          <t>-9,96; 8,94</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-8,7; 6,49</t>
+          <t>-9,47; 8,13</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,61; 8,64</t>
+          <t>-4,14; 11,85</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-7,74; 9,48</t>
+          <t>-7,43; 11,72</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-9,96; 8,24</t>
+          <t>-11,71; 11,78</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-5,07; 10,6</t>
+          <t>-10,97; 10,65</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-4,55; 14,76</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-8,52; 15,56</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -844,32 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-2,21</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-0,29</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1,19</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-2,55%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-0,33%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>1,33%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -882,42 +968,160 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-6,37; 1,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-4,14; 3,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-2,47; 5,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-7,24; 2,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-4,68; 4,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-2,7; 6,55</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>-1,94</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>-1,98</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0,99</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>1,41</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>-2,27%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>-2,28%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>1,11%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>1,66%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-6,83; 3,78</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-7,4; 3,37</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-3,46; 5,82</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-3,97; 6,87</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-7,82; 4,56</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-8,26; 4,12</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-3,77; 6,8</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-4,52; 8,34</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="C1:E1"/>
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>

--- a/data/trans_bre/P31_2_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P31_2_R-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,299 +627,199 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-8,19</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-12,11</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>3,8</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-2,52</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-9,08%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-12,61%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>4,26%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>-2,73%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-11.33657690855394</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-12.06585078607156</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>4.026119165074293</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>-2.135008742399769</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>-0.1252718519939337</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>-0.125983691681302</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>0.04506986543659579</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>-0.02308959516983188</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-22,79; 5,01</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-30,35; -1,52</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-9,01; 17,92</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-17,59; 8,83</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-23,88; 5,89</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-31,05; -1,62</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-9,28; 22,82</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-18,42; 10,14</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-26.08635971106482</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-30.66179064698554</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-8.305133767518399</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-16.68264630615927</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>-0.2768459584600977</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>-0.3119450884504359</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.08677521011510234</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.1757552115372528</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>2.376885676237729</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>-0.8124529261905078</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>18.53334837225137</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>9.078339778706541</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>0.02810993023951798</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>-0.009101311854215755</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>0.2418196551457781</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>0.1070199276314439</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-1,05</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>0,57</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-1,74</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>2,16</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-1,2%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>0,64%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>-1,93%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>2,52%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-8,1; 6,45</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-6,76; 7,26</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-8,45; 6,03</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-6,54; 10,15</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-8,97; 7,75</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-7,2; 8,63</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-9,17; 7,03</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-7,26; 12,73</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-0.6797761624431353</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>0.6871072860215821</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-0.7115129795456365</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>2.763217008204366</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>-0.007745887636857468</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>0.007696890926167901</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>-0.007941533977061668</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.03238695572330752</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-0,28</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-0,92</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>3,44</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>2,2</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-0,35%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-1,12%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>3,96%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>2,73%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-7.56328713467377</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-6.068107644697675</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-7.543616156673023</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-5.692826855091724</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>-0.08311657612719188</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.06504833499024032</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.08185351651542348</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.06121410674143823</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-9,96; 8,94</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-9,47; 8,13</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-4,14; 11,85</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-7,43; 11,72</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-11,71; 11,78</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-10,97; 10,65</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-4,55; 14,76</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-8,52; 15,56</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>6.550283857281921</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>6.968630508515206</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>6.672489810789956</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>10.832337243622</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>0.07894916393792653</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>0.08096249273976502</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>0.08011592468900956</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>0.1359377827945159</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,212 +827,211 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>-1.765154461299845</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>0.5298875715117335</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>3.003244332559085</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>1.93212194951079</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>-0.02108074660663826</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>0.006567791813755218</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>0.03444772350128154</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>0.02398252374235115</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-10.90323824055808</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-8.679031803523298</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-4.213971180233785</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-7.683647781022806</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>-0.1229574857056443</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>-0.1029788926315416</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-0.04607671435846785</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.08804298180651701</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>6.969852700916239</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>9.984827029772831</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>11.81866220497367</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>11.63723879775703</v>
+      </c>
+      <c r="G12" s="6" t="n">
+        <v>0.08841403538478461</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>0.1369235471119222</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>0.1461246992552984</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>0.156462087990706</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-1,94</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-1,98</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>0,99</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>1,41</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>-2,27%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>-2,28%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>1,11%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>1,66%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-6,83; 3,78</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-7,4; 3,37</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-3,46; 5,82</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-3,97; 6,87</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-7,82; 4,56</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-8,26; 4,12</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-3,77; 6,8</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-4,52; 8,34</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>-2.65270934791989</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-1.315156717379373</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>1.35886111241712</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>1.712572044659544</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>-0.03063760828591364</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>-0.01513271805161266</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.01531604404871071</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.02016355271934123</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-7.264066869588075</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-6.479850003541856</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-3.34545536728739</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-3.550923358059879</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>-0.08126688494532257</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.07361724050004204</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.03676695994701895</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.0401621922908607</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>2.69496997220229</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>4.391030440090731</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>6.16300508347239</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>7.387997499023246</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>0.03238238010091153</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>0.05264288517160035</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>0.07147630228531314</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.08916825258595468</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A1:B2"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
